--- a/biology/Botanique/Square_Serge-Reggiani/Square_Serge-Reggiani.xlsx
+++ b/biology/Botanique/Square_Serge-Reggiani/Square_Serge-Reggiani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Serge-Reggiani un espace vert du 19e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve place de Bitche, à proximité du canal de l'Ourcq et de l'église Saint-Jacques-Saint-Christophe de la Villette.
 Les quatre entrées du site se font par la place de Bitche au nord, par le parvis de l'église Saint-Jacques-et-Saint-Christophe de la Villette, la rue de Crimée au sud, le quai de l'Oise à l'est et la rue Jomard à l'ouest. Le quai de la Seine se termine précisément à l'entrée sud du square.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square tient son nom de l'acteur et chanteur Serge Reggiani. 
 </t>
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé sur la place de Bitche, il avait pris communément ce nom, mais pour les 15 ans de la disparition de l'artiste, la Ville de Paris et le conseil d'arrondissement du 19e arrondissement ont décidé de le nommer officiellement en mémoire de Serge Reggiani[1]. Le square est situé à proximité de la promenade Signoret-Montand et sa nouvelle dénomination est inaugurée en septembre 2019[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé sur la place de Bitche, il avait pris communément ce nom, mais pour les 15 ans de la disparition de l'artiste, la Ville de Paris et le conseil d'arrondissement du 19e arrondissement ont décidé de le nommer officiellement en mémoire de Serge Reggiani. Le square est situé à proximité de la promenade Signoret-Montand et sa nouvelle dénomination est inaugurée en septembre 2019.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Bâtiments remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brigade de sapeurs-pompiers de Paris (centre de secours Bitche) jouxte le square.
 Le jardin, réputé pour ses magnifiques paulownias, est doté d'un kiosque à musique, et tient lieu de parvis vert à l'église Saint-Jacques-et-Saint-Christophe de la Villette. 
